--- a/Dictionaries/EMPLOY1.xlsx
+++ b/Dictionaries/EMPLOY1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{10862DB9-DD37-4766-B7A9-83C84CDE2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2408BB5C-AC00-4B14-839F-52FA0D5BDF9A}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{10862DB9-DD37-4766-B7A9-83C84CDE2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE4B343-FAB8-4AC4-AF32-06299C00FFCD}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{BCBA19AC-4ABF-4E3A-BE96-57111411A41C}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{BCBA19AC-4ABF-4E3A-BE96-57111411A41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>EMPLOY1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Value</t>
   </si>
@@ -335,6 +332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E91AFCF-7667-44FA-821F-0E947B17379B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,196 +669,191 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>177871</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41.33</v>
+      </c>
+      <c r="E2" s="8">
+        <v>46.69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>177871</v>
+        <v>37923</v>
       </c>
       <c r="D3" s="1">
-        <v>41.33</v>
+        <v>8.81</v>
       </c>
       <c r="E3" s="8">
-        <v>46.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>37923</v>
+        <v>7668</v>
       </c>
       <c r="D4" s="1">
-        <v>8.81</v>
+        <v>1.78</v>
       </c>
       <c r="E4" s="8">
-        <v>9.5299999999999994</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>7668</v>
+        <v>8976</v>
       </c>
       <c r="D5" s="1">
-        <v>1.78</v>
+        <v>2.09</v>
       </c>
       <c r="E5" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>8976</v>
+        <v>17521</v>
       </c>
       <c r="D6" s="1">
-        <v>2.09</v>
+        <v>4.07</v>
       </c>
       <c r="E6" s="8">
-        <v>2.99</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>17521</v>
+        <v>10244</v>
       </c>
       <c r="D7" s="1">
-        <v>4.07</v>
+        <v>2.38</v>
       </c>
       <c r="E7" s="8">
-        <v>5.17</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>10244</v>
+        <v>139949</v>
       </c>
       <c r="D8" s="1">
-        <v>2.38</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="E8" s="8">
-        <v>4.78</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>139949</v>
+        <v>25490</v>
       </c>
       <c r="D9" s="1">
-        <v>32.520000000000003</v>
+        <v>5.92</v>
       </c>
       <c r="E9" s="8">
-        <v>20.78</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>25490</v>
+        <v>4713</v>
       </c>
       <c r="D10" s="1">
-        <v>5.92</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="8">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>4713</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C11" s="11">
+        <v>2968</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11">
-        <v>2968</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
